--- a/outcome/appendix/data/0_impact/HFMD.xlsx
+++ b/outcome/appendix/data/0_impact/HFMD.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>42580.8493578623</v>
+        <v>43467.3175675352</v>
       </c>
       <c r="C2" t="n">
         <v>-38933.206821492</v>
@@ -418,10 +418,10 @@
         <v>-66257.5812702765</v>
       </c>
       <c r="E2" t="n">
-        <v>119453.171373046</v>
+        <v>123429.833472752</v>
       </c>
       <c r="F2" t="n">
-        <v>148465.339422861</v>
+        <v>152678.509004828</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,7 +435,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>30736.0578941388</v>
+        <v>31997.5918277832</v>
       </c>
       <c r="C3" t="n">
         <v>-91050.1676343404</v>
@@ -444,10 +444,10 @@
         <v>-129690.734347143</v>
       </c>
       <c r="E3" t="n">
-        <v>216296.020080791</v>
+        <v>218221.106978609</v>
       </c>
       <c r="F3" t="n">
-        <v>267778.305839226</v>
+        <v>270281.350492236</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,7 +461,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>77940.9750018015</v>
+        <v>78254.9986326091</v>
       </c>
       <c r="C4" t="n">
         <v>-65989.8900122636</v>
@@ -470,10 +470,10 @@
         <v>-113313.936254694</v>
       </c>
       <c r="E4" t="n">
-        <v>292153.508410561</v>
+        <v>291105.288844414</v>
       </c>
       <c r="F4" t="n">
-        <v>340096.348479594</v>
+        <v>336113.452692734</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,19 +487,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>183185.68859192</v>
+        <v>182025.494591957</v>
       </c>
       <c r="C5" t="n">
-        <v>40573.5216459512</v>
+        <v>-4822278.89417723</v>
       </c>
       <c r="D5" t="n">
-        <v>-14071.1241084579</v>
+        <v>-7515660.4397949</v>
       </c>
       <c r="E5" t="n">
-        <v>407136.542453099</v>
+        <v>5353558.81087634</v>
       </c>
       <c r="F5" t="n">
-        <v>482040.309482154</v>
+        <v>8046940.35649401</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,19 +513,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>308972.158963632</v>
+        <v>308220.111621877</v>
       </c>
       <c r="C6" t="n">
-        <v>151471.882791045</v>
+        <v>-211512749.666569</v>
       </c>
       <c r="D6" t="n">
-        <v>71773.6598790175</v>
+        <v>-323685813.218486</v>
       </c>
       <c r="E6" t="n">
-        <v>593465.136585696</v>
+        <v>212287172.568806</v>
       </c>
       <c r="F6" t="n">
-        <v>702649.242357653</v>
+        <v>324460236.120723</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -539,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>334241.216046824</v>
+        <v>334799.673581906</v>
       </c>
       <c r="C7" t="n">
-        <v>174298.060058567</v>
+        <v>-4830749489.22624</v>
       </c>
       <c r="D7" t="n">
-        <v>69131.6540900568</v>
+        <v>-7388191231.56847</v>
       </c>
       <c r="E7" t="n">
-        <v>571626.19980934</v>
+        <v>4831495413.48611</v>
       </c>
       <c r="F7" t="n">
-        <v>676792.60577785</v>
+        <v>7388937155.82833</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -565,19 +565,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>287185.809770365</v>
+        <v>288509.99980789</v>
       </c>
       <c r="C8" t="n">
-        <v>117461.040594857</v>
+        <v>-65234684121.79</v>
       </c>
       <c r="D8" t="n">
-        <v>45173.7444756054</v>
+        <v>-99768000403.5876</v>
       </c>
       <c r="E8" t="n">
-        <v>464687.15954942</v>
+        <v>65235290499.0053</v>
       </c>
       <c r="F8" t="n">
-        <v>550179.328719853</v>
+        <v>99768606780.8029</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -591,19 +591,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>176729.007799933</v>
+        <v>178131.628576019</v>
       </c>
       <c r="C9" t="n">
-        <v>-18700.663354265</v>
+        <v>-517865879148.145</v>
       </c>
       <c r="D9" t="n">
-        <v>-95978.8953287448</v>
+        <v>-792007604376.771</v>
       </c>
       <c r="E9" t="n">
-        <v>299580.020688882</v>
+        <v>517866213339.386</v>
       </c>
       <c r="F9" t="n">
-        <v>359100.439322603</v>
+        <v>792007938568.013</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -617,19 +617,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>178164.329024645</v>
+        <v>179183.61110288</v>
       </c>
       <c r="C10" t="n">
-        <v>-12051.3940109716</v>
+        <v>-8360382377804.84</v>
       </c>
       <c r="D10" t="n">
-        <v>-94017.2228298805</v>
+        <v>-12786101561503.3</v>
       </c>
       <c r="E10" t="n">
-        <v>313343.079414347</v>
+        <v>8360382719414.29</v>
       </c>
       <c r="F10" t="n">
-        <v>379588.707574272</v>
+        <v>12786101903112.8</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -643,19 +643,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>166959.809375081</v>
+        <v>168410.881420656</v>
       </c>
       <c r="C11" t="n">
-        <v>-27995.9385706298</v>
+        <v>-96541974611891.4</v>
       </c>
       <c r="D11" t="n">
-        <v>-114395.412242868</v>
+        <v>-147648208969303</v>
       </c>
       <c r="E11" t="n">
-        <v>304834.453618928</v>
+        <v>96541974962060.8</v>
       </c>
       <c r="F11" t="n">
-        <v>384828.516857813</v>
+        <v>147648209319473</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -669,19 +669,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>134895.41975415</v>
+        <v>136298.409874165</v>
       </c>
       <c r="C12" t="n">
-        <v>-68597.3639848487</v>
+        <v>-1204495151903161</v>
       </c>
       <c r="D12" t="n">
-        <v>-159213.813968883</v>
+        <v>-1842116369604776</v>
       </c>
       <c r="E12" t="n">
-        <v>273759.733525513</v>
+        <v>1204495152195138</v>
       </c>
       <c r="F12" t="n">
-        <v>364376.183509547</v>
+        <v>1842116369896753</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -695,19 +695,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>98258.1988181761</v>
+        <v>99423.0977795916</v>
       </c>
       <c r="C13" t="n">
-        <v>-114924.269814328</v>
+        <v>-9720301415728302</v>
       </c>
       <c r="D13" t="n">
-        <v>-209569.993249558</v>
+        <v>-14865918162001914</v>
       </c>
       <c r="E13" t="n">
-        <v>242655.785162036</v>
+        <v>9720301415935546</v>
       </c>
       <c r="F13" t="n">
-        <v>337301.508597267</v>
+        <v>14865918162209158</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,19 +721,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>57626.6485079633</v>
+        <v>59024.3527953437</v>
       </c>
       <c r="C14" t="n">
-        <v>-173406.675992979</v>
+        <v>-41498634396903936</v>
       </c>
       <c r="D14" t="n">
-        <v>-271917.005001908</v>
+        <v>-63466684456821392</v>
       </c>
       <c r="E14" t="n">
-        <v>224029.756893381</v>
+        <v>41498634397015552</v>
       </c>
       <c r="F14" t="n">
-        <v>302636.709523407</v>
+        <v>63466684456933008</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>37261.8568715192</v>
+        <v>38763.6555115217</v>
       </c>
       <c r="C15" t="n">
-        <v>-211171.470653799</v>
+        <v>-291161004474453568</v>
       </c>
       <c r="D15" t="n">
-        <v>-313400.414100929</v>
+        <v>-445292329871993856</v>
       </c>
       <c r="E15" t="n">
-        <v>268955.620409</v>
+        <v>291161004474518848</v>
       </c>
       <c r="F15" t="n">
-        <v>346032.521298914</v>
+        <v>445292329872059136</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,19 +773,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>80545.4185675025</v>
+        <v>81338.7429290287</v>
       </c>
       <c r="C16" t="n">
-        <v>-176485.632659604</v>
+        <v>-11057832036177932288</v>
       </c>
       <c r="D16" t="n">
-        <v>-282302.591769123</v>
+        <v>-16911494723032870912</v>
       </c>
       <c r="E16" t="n">
-        <v>321354.789400115</v>
+        <v>11057832036178153472</v>
       </c>
       <c r="F16" t="n">
-        <v>400360.88807317</v>
+        <v>16911494723033092096</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -799,19 +799,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>184017.731486133</v>
+        <v>183115.147417593</v>
       </c>
       <c r="C17" t="n">
-        <v>-62648.7956882815</v>
+        <v>-540124882507274584064</v>
       </c>
       <c r="D17" t="n">
-        <v>-171936.035529238</v>
+        <v>-826049723889431740416</v>
       </c>
       <c r="E17" t="n">
-        <v>409039.894788675</v>
+        <v>540124882507275108352</v>
       </c>
       <c r="F17" t="n">
-        <v>484295.897957053</v>
+        <v>826049723889432264704</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>299851.858158709</v>
+        <v>298068.034850374</v>
       </c>
       <c r="C18" t="n">
-        <v>83714.3906057662</v>
+        <v>-8649289491246396473344</v>
       </c>
       <c r="D18" t="n">
-        <v>-28936.2762760769</v>
+        <v>-13227946772083066798080</v>
       </c>
       <c r="E18" t="n">
-        <v>596164.590196818</v>
+        <v>8649289491246396473344</v>
       </c>
       <c r="F18" t="n">
-        <v>705848.535017969</v>
+        <v>13227946772083066798080</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -851,19 +851,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>321205.555066751</v>
+        <v>320759.611001436</v>
       </c>
       <c r="C19" t="n">
-        <v>109625.882344073</v>
+        <v>-186935791633319505952768</v>
       </c>
       <c r="D19" t="n">
-        <v>-6290.65964106913</v>
+        <v>-285893622132241166499840</v>
       </c>
       <c r="E19" t="n">
-        <v>574156.115986009</v>
+        <v>186935791633319505952768</v>
       </c>
       <c r="F19" t="n">
-        <v>679791.240247492</v>
+        <v>285893622132241166499840</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,19 +877,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>276653.653820793</v>
+        <v>278192.592973131</v>
       </c>
       <c r="C20" t="n">
-        <v>29043.1673564049</v>
+        <v>-1643714569308745486041088</v>
       </c>
       <c r="D20" t="n">
-        <v>-90049.723542516</v>
+        <v>-2513844501715282397495296</v>
       </c>
       <c r="E20" t="n">
-        <v>478986.81963429</v>
+        <v>1643714569308745486041088</v>
       </c>
       <c r="F20" t="n">
-        <v>598079.710533211</v>
+        <v>2513844501715282397495296</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,19 +903,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>172929.427362582</v>
+        <v>175619.890442518</v>
       </c>
       <c r="C21" t="n">
-        <v>-103534.77082739</v>
+        <v>-9943946257744770092761088</v>
       </c>
       <c r="D21" t="n">
-        <v>-225721.466582416</v>
+        <v>-15207953431900598810181632</v>
       </c>
       <c r="E21" t="n">
-        <v>358097.554434114</v>
+        <v>9943946257744770092761088</v>
       </c>
       <c r="F21" t="n">
-        <v>480284.25018914</v>
+        <v>15207953431900598810181632</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -929,19 +929,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>174495.405845389</v>
+        <v>177412.559152274</v>
       </c>
       <c r="C22" t="n">
-        <v>-93730.386690667</v>
+        <v>-214463197539683488357154816</v>
       </c>
       <c r="D22" t="n">
-        <v>-218934.462408675</v>
+        <v>-327993156489534912646348800</v>
       </c>
       <c r="E22" t="n">
-        <v>379301.871435058</v>
+        <v>214463197539683488357154816</v>
       </c>
       <c r="F22" t="n">
-        <v>504505.947153066</v>
+        <v>327993156489534912646348800</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,19 +955,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>162008.842117936</v>
+        <v>165083.624870865</v>
       </c>
       <c r="C23" t="n">
-        <v>-106865.371185745</v>
+        <v>-1525000614109491620355244032</v>
       </c>
       <c r="D23" t="n">
-        <v>-235015.800499383</v>
+        <v>-2332287174715363606868787200</v>
       </c>
       <c r="E23" t="n">
-        <v>377298.47580069</v>
+        <v>1525000614109491620355244032</v>
       </c>
       <c r="F23" t="n">
-        <v>505448.905114328</v>
+        <v>2332287174715363606868787200</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>132084.107108348</v>
+        <v>134839.210257563</v>
       </c>
       <c r="C24" t="n">
-        <v>-144941.412293999</v>
+        <v>-12308069184713736746579263488</v>
       </c>
       <c r="D24" t="n">
-        <v>-275971.960221338</v>
+        <v>-18823567439531671540423720960</v>
       </c>
       <c r="E24" t="n">
-        <v>350103.781834662</v>
+        <v>12308069184713736746579263488</v>
       </c>
       <c r="F24" t="n">
-        <v>481134.329762002</v>
+        <v>18823567439531671540423720960</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>97386.4811770522</v>
+        <v>99664.6063528461</v>
       </c>
       <c r="C25" t="n">
-        <v>-188980.469177104</v>
+        <v>-98572421624479942788333436928</v>
       </c>
       <c r="D25" t="n">
-        <v>-322829.176481314</v>
+        <v>-150753509610654933829162106880</v>
       </c>
       <c r="E25" t="n">
-        <v>316711.984524812</v>
+        <v>98572421624479942788333436928</v>
       </c>
       <c r="F25" t="n">
-        <v>450560.691829022</v>
+        <v>150753509610654933829162106880</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,19 +1033,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>58414.0784955984</v>
+        <v>60344.3474329619</v>
       </c>
       <c r="C26" t="n">
-        <v>-245376.291388587</v>
+        <v>-259816152180882398910166859776</v>
       </c>
       <c r="D26" t="n">
-        <v>-381985.033436368</v>
+        <v>-397354515079467471061211152384</v>
       </c>
       <c r="E26" t="n">
-        <v>271468.076691105</v>
+        <v>259816152180882398910166859776</v>
       </c>
       <c r="F26" t="n">
-        <v>407352.563842399</v>
+        <v>397354515079467471061211152384</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1059,19 +1059,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>38528.7969130454</v>
+        <v>40138.7296554727</v>
       </c>
       <c r="C27" t="n">
-        <v>-281227.011879203</v>
+        <v>-1552075422409974233203826753536</v>
       </c>
       <c r="D27" t="n">
-        <v>-420541.118705275</v>
+        <v>-2373694520766805326021498241024</v>
       </c>
       <c r="E27" t="n">
-        <v>296955.344756289</v>
+        <v>1552075422409974233203826753536</v>
       </c>
       <c r="F27" t="n">
-        <v>388011.593944567</v>
+        <v>2373694520766805326021498241024</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,19 +1085,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>80680.2248205657</v>
+        <v>81628.4337458193</v>
       </c>
       <c r="C28" t="n">
-        <v>-244776.436738788</v>
+        <v>-24402891040248367305471672975360</v>
       </c>
       <c r="D28" t="n">
-        <v>-386744.363812531</v>
+        <v>-37321001232765005226714282852352</v>
       </c>
       <c r="E28" t="n">
-        <v>339157.535744571</v>
+        <v>24402891040248367305471672975360</v>
       </c>
       <c r="F28" t="n">
-        <v>433559.086517466</v>
+        <v>37321001232765005226714282852352</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1111,19 +1111,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>183047.959912705</v>
+        <v>182722.941241424</v>
       </c>
       <c r="C29" t="n">
-        <v>-129305.261359897</v>
+        <v>-797092885527681300624175215411200</v>
       </c>
       <c r="D29" t="n">
-        <v>-273878.302672877</v>
+        <v>-1219048370717309802389129511567360</v>
       </c>
       <c r="E29" t="n">
-        <v>416904.69070596</v>
+        <v>797092885527681300624175215411200</v>
       </c>
       <c r="F29" t="n">
-        <v>561477.73201894</v>
+        <v>1219048370717309802389129511567360</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>300092.522141578</v>
+        <v>298550.963086825</v>
       </c>
       <c r="C30" t="n">
-        <v>18577.5324505722</v>
+        <v>-14070122626639460447177515533860864</v>
       </c>
       <c r="D30" t="n">
-        <v>-128554.504276151</v>
+        <v>-21518395628939450703686014796300288</v>
       </c>
       <c r="E30" t="n">
-        <v>598120.659351337</v>
+        <v>14070122626639460447177515533860864</v>
       </c>
       <c r="F30" t="n">
-        <v>721587.636056144</v>
+        <v>21518395628939450703686014796300288</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1163,19 +1163,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>319589.582797688</v>
+        <v>318571.284755484</v>
       </c>
       <c r="C31" t="n">
-        <v>45907.0028779377</v>
+        <v>-201451519948431161995030426340556800</v>
       </c>
       <c r="D31" t="n">
-        <v>-103740.276376391</v>
+        <v>-308093512852125695078722669367001088</v>
       </c>
       <c r="E31" t="n">
-        <v>611287.882231092</v>
+        <v>201451519948431161995030426340556800</v>
       </c>
       <c r="F31" t="n">
-        <v>760935.161485421</v>
+        <v>308093512852125695078722669367001088</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1189,19 +1189,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>271840.270310437</v>
+        <v>272762.047803011</v>
       </c>
       <c r="C32" t="n">
-        <v>-33348.3010637033</v>
+        <v>-937596512266018017149780387128410112</v>
       </c>
       <c r="D32" t="n">
-        <v>-185469.240270284</v>
+        <v>-1433930124607075447222407489256423424</v>
       </c>
       <c r="E32" t="n">
-        <v>541378.288054398</v>
+        <v>937596512266018017149780387128410112</v>
       </c>
       <c r="F32" t="n">
-        <v>693499.227260979</v>
+        <v>1433930124607075447222407489256423424</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1215,19 +1215,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>170038.284763809</v>
+        <v>172700.435105729</v>
       </c>
       <c r="C33" t="n">
-        <v>-164679.977961761</v>
+        <v>-4736837957465702926553070137348456448</v>
       </c>
       <c r="D33" t="n">
-        <v>-319234.991151115</v>
+        <v>-7244368503650307988770418595047931904</v>
       </c>
       <c r="E33" t="n">
-        <v>419242.761568485</v>
+        <v>4736837957465702926553070137348456448</v>
       </c>
       <c r="F33" t="n">
-        <v>573797.774757839</v>
+        <v>7244368503650307988770418595047931904</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1241,19 +1241,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>174034.79012321</v>
+        <v>177567.242386651</v>
       </c>
       <c r="C34" t="n">
-        <v>-153702.402096385</v>
+        <v>-47128345973471293601542796399106588672</v>
       </c>
       <c r="D34" t="n">
-        <v>-310653.745062383</v>
+        <v>-72076585322334664643975670476386074624</v>
       </c>
       <c r="E34" t="n">
-        <v>439273.886840776</v>
+        <v>47128345973471293601542796399106588672</v>
       </c>
       <c r="F34" t="n">
-        <v>596225.229806775</v>
+        <v>72076585322334664643975670476386074624</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1267,19 +1267,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>164561.248065968</v>
+        <v>168317.434231296</v>
       </c>
       <c r="C35" t="n">
-        <v>-165730.28383758</v>
+        <v>-365910242925852853697063290998207021056</v>
       </c>
       <c r="D35" t="n">
-        <v>-325041.915602808</v>
+        <v>-559611424924762026872050249908818542592</v>
       </c>
       <c r="E35" t="n">
-        <v>436163.388452525</v>
+        <v>365910242925852853697063290998207021056</v>
       </c>
       <c r="F35" t="n">
-        <v>595475.020217753</v>
+        <v>559611424924762026872050249908818542592</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1293,19 +1293,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>135978.429159164</v>
+        <v>139559.957157373</v>
       </c>
       <c r="C36" t="n">
-        <v>-202759.242557941</v>
+        <v>-3855280619603531789456224549422317436928</v>
       </c>
       <c r="D36" t="n">
-        <v>-364396.701002971</v>
+        <v>-5896142900427998427345562896401476616192</v>
       </c>
       <c r="E36" t="n">
-        <v>407921.612098604</v>
+        <v>3855280619603531789456224549422317436928</v>
       </c>
       <c r="F36" t="n">
-        <v>569559.070543634</v>
+        <v>5896142900427998427345562896401476616192</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1319,19 +1319,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>102516.649095574</v>
+        <v>105602.727792067</v>
       </c>
       <c r="C37" t="n">
-        <v>-245805.931274792</v>
+        <v>-12721554764073239845320847540174968586240</v>
       </c>
       <c r="D37" t="n">
-        <v>-409736.221122148</v>
+        <v>-19455939062695283841732272848073983524864</v>
       </c>
       <c r="E37" t="n">
-        <v>373537.446622501</v>
+        <v>12721554764073239845320847540174968586240</v>
       </c>
       <c r="F37" t="n">
-        <v>537467.736469856</v>
+        <v>19455939062695283841732272848073983524864</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1345,19 +1345,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>63486.6027645858</v>
+        <v>65904.828636349</v>
       </c>
       <c r="C38" t="n">
-        <v>-301259.435569994</v>
+        <v>-72374737397116332869083209208333082820608</v>
       </c>
       <c r="D38" t="n">
-        <v>-467450.927188269</v>
+        <v>-110687609069098675779215324996139749474304</v>
       </c>
       <c r="E38" t="n">
-        <v>326626.965976025</v>
+        <v>72374737397116332869083209208333082820608</v>
       </c>
       <c r="F38" t="n">
-        <v>492818.4575943</v>
+        <v>110687609069098675779215324996139749474304</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1371,19 +1371,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>42414.2177978938</v>
+        <v>44112.4644841749</v>
       </c>
       <c r="C39" t="n">
-        <v>-336213.768943568</v>
+        <v>-354182524228021802505799938583850270064640</v>
       </c>
       <c r="D39" t="n">
-        <v>-504636.106663885</v>
+        <v>-541675426962169043309412204463331991355392</v>
       </c>
       <c r="E39" t="n">
-        <v>309467.484124597</v>
+        <v>354182524228021802505799938583850270064640</v>
       </c>
       <c r="F39" t="n">
-        <v>468523.307524476</v>
+        <v>541675426962169043309412204463331991355392</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
